--- a/Mobile/coyni_mobile/resources/TestScript_Demo.xlsx
+++ b/Mobile/coyni_mobile/resources/TestScript_Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/24-July-2023_v3.0_Android/coyni-automation/Mobile/coyni_mobile/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B83ECB-4739-0649-9DB7-7DD64C8BC3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FCA642-28C2-F347-87C9-70214F2B5DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -314,50 +314,6 @@
     <t>testdata_3_0_customer.xls,PaymentMethods</t>
   </si>
   <si>
-    <t>Verify Buy Token with New and Existing MX Bank</t>
-  </si>
-  <si>
-    <t>Buy Token - MX Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni_mobile.tests.DashBoardTest,
-testBuyTokenWithBankAccount,
--ppaymentHeading,
--pheading,
--paddPaymentHeading,
--pmxAddBankHeading,
--pmxAddBankDescription,
--pmxAddBankChkBxDescription,
--pmxConfirmationHeading,
--pmxConfirmationDescription,
--pcredentialsHeading,
--pmxUsername,
--pmxPassword,
--ptokensHeading,
--pverifyBuyTokenWithExistingCard,
--pamount,
--pnoteMsg,
--porderPopupHeading,
--ppinHeading,
--psuccessHeading,
--psuccessDescription,
--ppin,
--pcardSuccessHeading,
--pcardSuccessDescription,
--paccountType,
--ptransactionType,
--ptransactionType1,
--ptransactionStatus
-</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.DashBoardTest,
-testDeleteBankAccount,
--ppaymentHeading,
--premovePopUpHeading,
--ptoastMsg</t>
-  </si>
-  <si>
     <t>Verify Withdraw Token with Gift Cards</t>
   </si>
   <si>
@@ -380,30 +336,6 @@
 -pvalidateVisaGiftCard,
 -ptransactionType,
 -ptransactionStatus</t>
-  </si>
-  <si>
-    <t>Verify Edit Address with Invalid data and Navigation view</t>
-  </si>
-  <si>
-    <t>testdata_3_0_customer.xls,profile</t>
-  </si>
-  <si>
-    <t>Profile-Edit Address</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.CustomerProfileTest,
-testEditAddressFieldValidations,
--pheading,
--peditAddressHeading,
--pcountry,
--paddLine1,
--paddLine2,
--pcity,
--pstate,
--pzipCode,
--paddLine1ErrMsg,
--pcityErrMsg,
--pzipCodeErrMsg</t>
   </si>
   <si>
     <t>Verify Scan Code and My QR Code</t>
@@ -491,7 +423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,19 +449,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -552,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -586,25 +505,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -887,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1020,7 +920,7 @@
     </row>
     <row r="4" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>33</v>
@@ -1038,75 +938,79 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:15" ht="397" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="280" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:15" ht="182" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>51</v>
+    <row r="6" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>54</v>
+      <c r="I6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="208" x14ac:dyDescent="0.2">
@@ -1174,138 +1078,68 @@
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="280" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>42</v>
+    <row r="9" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="11"/>
+      <c r="I9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:15" ht="224" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>55</v>
+    <row r="10" spans="1:15" ht="397" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="176" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" ht="397" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Mobile/coyni_mobile/resources/TestScript_Demo.xlsx
+++ b/Mobile/coyni_mobile/resources/TestScript_Demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/24-July-2023_v3.0_Android/coyni-automation/Mobile/coyni_mobile/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/03-Aug-2023_v3.0_Android/coyni-automation/Mobile/coyni_mobile/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FCA642-28C2-F347-87C9-70214F2B5DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D18EA6-5C03-5241-BDF9-6F3502CA96E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -145,9 +145,6 @@
 </t>
   </si>
   <si>
-    <t>Verify Withdraw Token with New and Existing Debit Cards</t>
-  </si>
-  <si>
     <t>testdata_3_0_customer.xls,buyTokens</t>
   </si>
   <si>
@@ -225,37 +222,6 @@
   </si>
   <si>
     <t>Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni_mobile.tests.DashBoardTest,
-testWithdrawTokenWithCards,
--pheading,
--ppaymentHeading,
--pcardHeading,
--pnameOnCard,
--pcardNumber,
--pcardExp,
--pcvv,
--ppreAuthHeading,
--paddPaymentHeading,
--ptokensHeading,
--ppreAuthiAmount,
--pverifyBuyTokenWithExistingCard,
--pamount,
--porderPopupHeading,
--ppinHeading,
--psuccessHeading,
--psuccessDescription,
--ppin,
--pcardSuccessHeading,
--pcardSuccessDescription,
--pnoteMsg,
--pnumOfPaymentMethods,
--ppayMethodMaxRechdErrMsg,
--ptransactionType,
--ptransactionType1,
--ptransactionStatus
-</t>
   </si>
   <si>
     <t xml:space="preserve">coyni_mobile.tests.DashBoardTest,
@@ -305,9 +271,6 @@
     <t>Buy Tokens - Credit Card</t>
   </si>
   <si>
-    <t>Withdraw Tokens - Debit Card</t>
-  </si>
-  <si>
     <t>Verify Add Debit and Credit Card invalid data</t>
   </si>
   <si>
@@ -413,10 +376,10 @@
 </t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Payment Methods - Debit Card</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -787,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -863,7 +826,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
@@ -872,10 +835,10 @@
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>19</v>
@@ -888,175 +851,175 @@
     </row>
     <row r="3" spans="1:15" ht="384" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="H3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="280" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="I6" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="I7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="K7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>17</v>
@@ -1068,78 +1031,46 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" ht="397" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Mobile/coyni_mobile/resources/TestScript_Demo.xlsx
+++ b/Mobile/coyni_mobile/resources/TestScript_Demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/03-Aug-2023_v3.0_Android/coyni-automation/Mobile/coyni_mobile/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/16-AUg-2023_v3.0_Android/coyni-automation/Mobile/coyni_mobile/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D18EA6-5C03-5241-BDF9-6F3502CA96E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3219865-2FDA-D340-A21C-9484D9D2B90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -82,19 +82,7 @@
     <t>Keywords8</t>
   </si>
   <si>
-    <t>Verify SignUp with valid credentials</t>
-  </si>
-  <si>
-    <t>testdata_3_0_customer.xls,SignupPage</t>
-  </si>
-  <si>
     <t>RunRangeOfIterations</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>SignUp</t>
   </si>
   <si>
     <t xml:space="preserve">coyni_mobile.tests.SignUpTest,
@@ -145,9 +133,6 @@
 </t>
   </si>
   <si>
-    <t>testdata_3_0_customer.xls,buyTokens</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -164,15 +149,6 @@
 -pcardHeading,
 -premovePopUpHeading,
 -ptoastMsg</t>
-  </si>
-  <si>
-    <t>Verify Buy Token with New and Existing Debit and Credit Cards</t>
-  </si>
-  <si>
-    <t>Verify Send Transaction</t>
-  </si>
-  <si>
-    <t>testdata_3_0_customer.xls,notifications</t>
   </si>
   <si>
     <t>coyni_mobile.tests.DashBoardTest,
@@ -197,9 +173,6 @@
 -ppin</t>
   </si>
   <si>
-    <t>Verify Request Transaction</t>
-  </si>
-  <si>
     <t>coyni_mobile.tests.DashBoardTest,
 testRequest,
 -pname,
@@ -216,12 +189,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Send</t>
-  </si>
-  <si>
-    <t>Request</t>
   </si>
   <si>
     <t xml:space="preserve">coyni_mobile.tests.DashBoardTest,
@@ -254,9 +221,6 @@
 </t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>coyni_mobile.tests.DashBoardTest,
 verifySentTransaction,
 -pname,
@@ -266,21 +230,6 @@
 -ptransDtlsHeading,
 -ptransactionType1,
 -ptransactionStatus</t>
-  </si>
-  <si>
-    <t>Buy Tokens - Credit Card</t>
-  </si>
-  <si>
-    <t>Verify Add Debit and Credit Card invalid data</t>
-  </si>
-  <si>
-    <t>testdata_3_0_customer.xls,PaymentMethods</t>
-  </si>
-  <si>
-    <t>Verify Withdraw Token with Gift Cards</t>
-  </si>
-  <si>
-    <t>Withdraw Token - Gift Card</t>
   </si>
   <si>
     <t>coyni_mobile.tests.DashBoardTest,
@@ -301,12 +250,6 @@
 -ptransactionStatus</t>
   </si>
   <si>
-    <t>Verify Scan Code and My QR Code</t>
-  </si>
-  <si>
-    <t>Scan Code</t>
-  </si>
-  <si>
     <t>coyni_mobile.tests.DashBoardTest,
 testMyQRCode,
 -pamount,
@@ -330,12 +273,6 @@
 -pmessage,
 -perrorMessage,
 -psendErrMsg</t>
-  </si>
-  <si>
-    <t>Verify Filters with one Transactions Type</t>
-  </si>
-  <si>
-    <t>testdata_3_0_customer.xls,filters</t>
   </si>
   <si>
     <t>Filters</t>
@@ -376,10 +313,64 @@
 </t>
   </si>
   <si>
-    <t>Payment Methods - Debit Card</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>TC_01.Verify SignUp with valid credentials</t>
+  </si>
+  <si>
+    <t>Add Credit Card and Do Buy Tokens</t>
+  </si>
+  <si>
+    <t>Do Withdraw Tokens with Gift Card</t>
+  </si>
+  <si>
+    <t>Add Card flow verify error messages</t>
+  </si>
+  <si>
+    <t>Send Tokens from One User To another User</t>
+  </si>
+  <si>
+    <t>Request Tokens From one User to Another User</t>
+  </si>
+  <si>
+    <t>Verify Scan Code</t>
+  </si>
+  <si>
+    <t>Complete Sign Up flow and Add Address,Payment Method</t>
+  </si>
+  <si>
+    <t>testdata_Demo.xlsx,SignupPage</t>
+  </si>
+  <si>
+    <t>testdata_Demo.xlsx,buyTokens</t>
+  </si>
+  <si>
+    <t>testdata_Demo.xlsx,PaymentMethods</t>
+  </si>
+  <si>
+    <t>testdata_Demo.xlsx,notifications</t>
+  </si>
+  <si>
+    <t>testdata_Demo.xlsx,filters</t>
+  </si>
+  <si>
+    <t>TC_02.Verify Buy Token with New and Existing Debit and Credit Cards</t>
+  </si>
+  <si>
+    <t>TC_03.Verify Withdraw Token with Gift Cards</t>
+  </si>
+  <si>
+    <t>TC_04.Verify Add Debit and Credit Card invalid data</t>
+  </si>
+  <si>
+    <t>TC_05.Verify Scan Code and My QR Code</t>
+  </si>
+  <si>
+    <t>TC_06.Verify Send Transaction</t>
+  </si>
+  <si>
+    <t>TC_07.Verify Request Transaction</t>
+  </si>
+  <si>
+    <t>TC_08.Verify Filters with one Transactions Type</t>
   </si>
 </sst>
 </file>
@@ -823,251 +814,251 @@
     </row>
     <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:15" ht="384" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="280" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="J6" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="I8" s="10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
